--- a/biology/Médecine/Jack_LaLanne/Jack_LaLanne.xlsx
+++ b/biology/Médecine/Jack_LaLanne/Jack_LaLanne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francois Henri LaLanne, dit Jack LaLanne, né le 26 septembre 1914 à San Francisco et mort le 23 janvier 2011 à Morro Bay, est un expert en fitness, nutritionniste, et présentateur américain.
 D'abord connu pour être le coach de célébrités comme Jane Fonda ou Richard Simmons, il présente ensuite l'émission de fitness The Jack LaLanne Show de 1953 à 1985. Une centrifugeuse à fruits et à légumes porte son nom.
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les parents de Jack LaLanne sont Jean LaLanne et Jeanne Garaig, Béarnais émigrés en Californie vers la fin du XIXe siècle[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les parents de Jack LaLanne sont Jean LaLanne et Jeanne Garaig, Béarnais émigrés en Californie vers la fin du XIXe siècle.
 </t>
         </is>
       </c>
@@ -543,15 +557,89 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Jack LaLanne est apparu dans son propre rôle dans les films et les émissions suivants:
-Cinéma
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jack_LaLanne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jack_LaLanne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1961 : Le Tombeur de ces dames
 1966 : Batman
 1990 : Y a-t-il un exorciste pour sauver le monde ?
 1999 : Beefcake
-Télévision
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jack_LaLanne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jack_LaLanne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1957 : You Bet Your Life
 1960 : Peter Gunn
 1961-1963 : Monsieur Ed, le cheval qui parle (2 épisodes)
